--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_19_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-82107.92252624356</v>
+        <v>-84809.13917770104</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>263.7138800015062</v>
+      </c>
+      <c r="C2" t="n">
         <v>212.5689651179051</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,7 +674,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>81.10851687400128</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>133.9766144773137</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>92.61386929568175</v>
+        <v>75.02623601535676</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>111.4075712450363</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.41899097776992</v>
+        <v>12.41899097776994</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660375</v>
+        <v>143.3066953660377</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>30.08697251343634</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>383.6877278154288</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8005767399402</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713749</v>
+        <v>4.36018225871409</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>13.53565718832714</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>143.5293110515682</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>135.4739678040333</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>122.9020927429652</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>28.19868784836003</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>180.2158708563821</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>49.57372789033013</v>
       </c>
       <c r="S10" t="n">
-        <v>125.5450341172874</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1348,16 +1348,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>263.2068301404975</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>240.1044458298915</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>98.88510599615212</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530791</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>105.5089280640925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1585,7 +1585,7 @@
         <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>191.8235680309981</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576156</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699849</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>60.86846495359787</v>
+        <v>252.1376433238244</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695437</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465721</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833812</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>96.02642072443803</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.5323793059117</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936194</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>212.5602966632241</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141552</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.4528856889363</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699811</v>
       </c>
       <c r="E31" t="n">
-        <v>45.3158374312146</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,13 +3007,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>21.44532649587962</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428098</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206839</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>51.89407438975464</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>20.88994825141679</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>134.3852063573445</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>210.5950626772376</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>19.72264368952162</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>98.42683230404823</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573.7617370571243</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>573.7617370571243</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
         <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4367,13 +4367,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388466</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388466</v>
+        <v>788.4778634388467</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>451.895991647935</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="C3" t="n">
-        <v>451.895991647935</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="D3" t="n">
-        <v>302.9615819866838</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E3" t="n">
-        <v>302.9615819866838</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>156.4270240135687</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>503.6022960313625</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4434,25 +4434,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>887.8833378166544</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="U3" t="n">
-        <v>659.7474918534679</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="V3" t="n">
-        <v>659.7474918534679</v>
+        <v>652.7312295849119</v>
       </c>
       <c r="W3" t="n">
-        <v>659.7474918534679</v>
+        <v>398.4938728567103</v>
       </c>
       <c r="X3" t="n">
-        <v>451.895991647935</v>
+        <v>398.4938728567103</v>
       </c>
       <c r="Y3" t="n">
-        <v>451.895991647935</v>
+        <v>398.4938728567103</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.524027039546</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>343.5878441116391</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>343.5878441116391</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>343.5878441116391</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>343.5878441116391</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>175.0184834666425</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>493.8069210092334</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>493.8069210092334</v>
       </c>
       <c r="V4" t="n">
-        <v>961.3061570810935</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="W4" t="n">
-        <v>961.3061570810935</v>
+        <v>418.0228442260448</v>
       </c>
       <c r="X4" t="n">
-        <v>733.3166061830761</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y4" t="n">
-        <v>512.524027039546</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>794.2389055105135</v>
+        <v>50.18495430551852</v>
       </c>
       <c r="C5" t="n">
-        <v>794.2389055105135</v>
+        <v>50.18495430551852</v>
       </c>
       <c r="D5" t="n">
-        <v>435.973206903763</v>
+        <v>50.18495430551852</v>
       </c>
       <c r="E5" t="n">
-        <v>50.18495430551876</v>
+        <v>50.18495430551852</v>
       </c>
       <c r="F5" t="n">
-        <v>43.23945355631529</v>
+        <v>43.23945355631505</v>
       </c>
       <c r="G5" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275169</v>
+        <v>93.76641159275061</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245567</v>
+        <v>239.0325989245543</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825642</v>
+        <v>456.1499114825601</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748876</v>
+        <v>729.4041931748816</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202382</v>
+        <v>1011.693823202374</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798416</v>
+        <v>1264.916654798406</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189413</v>
+        <v>1446.535482189402</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261728</v>
+        <v>1534.750911261715</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261728</v>
+        <v>1534.750911261715</v>
       </c>
       <c r="S5" t="n">
-        <v>1389.996673518256</v>
+        <v>1389.996673518243</v>
       </c>
       <c r="T5" t="n">
-        <v>1177.398442107331</v>
+        <v>1177.398442107318</v>
       </c>
       <c r="U5" t="n">
-        <v>1177.398442107331</v>
+        <v>923.7469742438359</v>
       </c>
       <c r="V5" t="n">
-        <v>1177.398442107331</v>
+        <v>923.7469742438359</v>
       </c>
       <c r="W5" t="n">
-        <v>824.6297868372169</v>
+        <v>923.7469742438359</v>
       </c>
       <c r="X5" t="n">
-        <v>794.2389055105135</v>
+        <v>550.2812159827561</v>
       </c>
       <c r="Y5" t="n">
-        <v>794.2389055105135</v>
+        <v>162.71785455303</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>637.7893148780412</v>
+        <v>179.6294278864856</v>
       </c>
       <c r="C6" t="n">
-        <v>463.3362855969142</v>
+        <v>179.6294278864856</v>
       </c>
       <c r="D6" t="n">
-        <v>314.4018759356629</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="E6" t="n">
-        <v>314.4018759356629</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="F6" t="n">
-        <v>167.8673179625479</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="G6" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="J6" t="n">
-        <v>174.2721860626392</v>
+        <v>49.44206107563365</v>
       </c>
       <c r="K6" t="n">
-        <v>284.4686930039499</v>
+        <v>159.6385680169434</v>
       </c>
       <c r="L6" t="n">
-        <v>478.9640368353022</v>
+        <v>539.489418554218</v>
       </c>
       <c r="M6" t="n">
-        <v>725.2877975060485</v>
+        <v>785.8131792249628</v>
       </c>
       <c r="N6" t="n">
-        <v>992.5396600782713</v>
+        <v>1053.065041797184</v>
       </c>
       <c r="O6" t="n">
-        <v>1214.80310724379</v>
+        <v>1275.328488962702</v>
       </c>
       <c r="P6" t="n">
-        <v>1373.856052442479</v>
+        <v>1434.381434161389</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261728</v>
+        <v>1534.750911261715</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757977</v>
+        <v>1530.346686757964</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.346686757977</v>
+        <v>1385.878273152059</v>
       </c>
       <c r="T6" t="n">
-        <v>1516.674305759666</v>
+        <v>1189.973630703743</v>
       </c>
       <c r="U6" t="n">
-        <v>1288.553222080271</v>
+        <v>1189.973630703743</v>
       </c>
       <c r="V6" t="n">
-        <v>1053.401113848528</v>
+        <v>954.8215224720002</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.401113848528</v>
+        <v>700.5841657437986</v>
       </c>
       <c r="X6" t="n">
-        <v>845.5496136429952</v>
+        <v>555.6050636715075</v>
       </c>
       <c r="Y6" t="n">
-        <v>637.7893148780412</v>
+        <v>347.8447649065536</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>328.7247512199634</v>
+        <v>349.747840565477</v>
       </c>
       <c r="C7" t="n">
-        <v>328.7247512199634</v>
+        <v>180.81165763757</v>
       </c>
       <c r="D7" t="n">
-        <v>178.6081118076277</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="E7" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="F7" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="G7" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="H7" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="I7" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523456</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223269</v>
+        <v>157.4322756223261</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830393</v>
+        <v>375.1387655830379</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388159</v>
+        <v>615.0688576388137</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974833</v>
+        <v>854.7285647974804</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891673</v>
+        <v>1060.07679889167</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934023</v>
+        <v>1212.267005934019</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495185</v>
+        <v>1234.200536495181</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.866490402743</v>
+        <v>1234.200536495181</v>
       </c>
       <c r="S7" t="n">
-        <v>989.7229623795454</v>
+        <v>1030.69189052957</v>
       </c>
       <c r="T7" t="n">
-        <v>765.05770425609</v>
+        <v>1030.69189052957</v>
       </c>
       <c r="U7" t="n">
-        <v>765.05770425609</v>
+        <v>1030.69189052957</v>
       </c>
       <c r="V7" t="n">
-        <v>510.3732160502032</v>
+        <v>776.0074023236833</v>
       </c>
       <c r="W7" t="n">
-        <v>510.3732160502032</v>
+        <v>486.5902322867227</v>
       </c>
       <c r="X7" t="n">
-        <v>510.3732160502032</v>
+        <v>486.5902322867227</v>
       </c>
       <c r="Y7" t="n">
-        <v>510.3732160502032</v>
+        <v>486.5902322867227</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1270.78477319198</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="C8" t="n">
-        <v>901.822256251568</v>
+        <v>1399.987221986177</v>
       </c>
       <c r="D8" t="n">
-        <v>543.5565576448175</v>
+        <v>1041.721523379427</v>
       </c>
       <c r="E8" t="n">
-        <v>157.7683050465733</v>
+        <v>655.9332707811825</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674217</v>
+        <v>648.987770031979</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>233.2830197562679</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>1644.250531453059</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X8" t="n">
-        <v>1270.78477319198</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="Y8" t="n">
-        <v>1270.78477319198</v>
+        <v>1768.949738926589</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4881,28 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>143.6627691908469</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143497</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458215</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.8620968941286</v>
+        <v>475.2050373426669</v>
       </c>
       <c r="C10" t="n">
-        <v>514.8620968941286</v>
+        <v>475.2050373426669</v>
       </c>
       <c r="D10" t="n">
-        <v>514.8620968941286</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941286</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1586.371647458002</v>
       </c>
       <c r="S10" t="n">
-        <v>1509.63295429946</v>
+        <v>1389.742899617863</v>
       </c>
       <c r="T10" t="n">
-        <v>1286.654473494195</v>
+        <v>1166.764418812599</v>
       </c>
       <c r="U10" t="n">
-        <v>997.5361359980328</v>
+        <v>877.6460813164367</v>
       </c>
       <c r="V10" t="n">
-        <v>742.851647792146</v>
+        <v>877.6460813164367</v>
       </c>
       <c r="W10" t="n">
-        <v>742.851647792146</v>
+        <v>877.6460813164367</v>
       </c>
       <c r="X10" t="n">
-        <v>514.8620968941286</v>
+        <v>877.6460813164367</v>
       </c>
       <c r="Y10" t="n">
-        <v>514.8620968941286</v>
+        <v>656.8535021729066</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1872.090169197695</v>
+        <v>1872.090169197694</v>
       </c>
       <c r="C11" t="n">
-        <v>1872.090169197695</v>
+        <v>1503.127652257283</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>1144.861953650532</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>759.073701052288</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194423</v>
+        <v>759.0737010522879</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>344.4579364934333</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706891</v>
       </c>
       <c r="K11" t="n">
         <v>695.1615405656958</v>
@@ -5048,43 +5048,43 @@
         <v>1216.830004625329</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087831</v>
+        <v>1828.95612308783</v>
       </c>
       <c r="N11" t="n">
         <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.988513535295</v>
       </c>
       <c r="P11" t="n">
         <v>3493.127967479995</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464062</v>
+        <v>3789.749829464061</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796038</v>
+        <v>3876.883295796037</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345379</v>
+        <v>3776.999350345378</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926744</v>
+        <v>3573.020743926742</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048272</v>
+        <v>3319.526802048271</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704701</v>
+        <v>2988.4639147047</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434587</v>
+        <v>2635.695259434586</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173507</v>
+        <v>2262.229501173506</v>
       </c>
       <c r="Y11" t="n">
-        <v>1872.090169197695</v>
+        <v>1872.090169197694</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9274008453848</v>
       </c>
       <c r="F12" t="n">
         <v>312.3928428722697</v>
@@ -5115,31 +5115,31 @@
         <v>88.13208718390852</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592077</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="K12" t="n">
-        <v>77.53766591592077</v>
+        <v>193.8410919870413</v>
       </c>
       <c r="L12" t="n">
-        <v>496.2347065738725</v>
+        <v>612.5381326449929</v>
       </c>
       <c r="M12" t="n">
-        <v>1004.191272530401</v>
+        <v>1120.494698601521</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.000582231611</v>
+        <v>1656.304008302731</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.941626564134</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2364.172502808908</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.384213239453</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.0356491047322</v>
+        <v>184.1123407281355</v>
       </c>
       <c r="C13" t="n">
-        <v>245.0356491047321</v>
+        <v>184.1123407281355</v>
       </c>
       <c r="D13" t="n">
-        <v>245.0356491047321</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="E13" t="n">
-        <v>245.0356491047321</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0356491047321</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592077</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648146</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344811</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336948</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010723</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925584</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>1868.62761945888</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1647.73628689332</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1358.644593842771</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.88341401348</v>
+        <v>1103.960105636883</v>
       </c>
       <c r="W13" t="n">
-        <v>875.4662439765193</v>
+        <v>814.5429355999227</v>
       </c>
       <c r="X13" t="n">
-        <v>647.476693078502</v>
+        <v>586.5533847019053</v>
       </c>
       <c r="Y13" t="n">
-        <v>426.6841139349718</v>
+        <v>365.7608055583752</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5306,10 +5306,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057242</v>
+        <v>513.8536007400749</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778173</v>
+        <v>344.917417812168</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654816</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830885</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.385923977511</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138445</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703146</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,34 +5507,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5598,22 +5598,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9324428257341</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257341</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133984</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5689,7 +5689,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1880.464695940369</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1625.780207734482</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1336.363037697521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1108.373486799504</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>887.5809076559739</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5750,22 +5750,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C22" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D22" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="23">
@@ -5978,25 +5978,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>198.0274703142541</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2049.400878868272</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868272</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662385</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6239,34 +6239,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>562.8579153358619</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6455,52 +6455,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591808</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>738.7889117913853</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>996.5276398439763</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C31" t="n">
-        <v>827.5914569160694</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D31" t="n">
-        <v>677.4748175037337</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1398.968683817746</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>1178.176104674216</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075809</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>710.248605371872</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>951.3929232910538</v>
+        <v>513.8536007400705</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356199</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232841</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408909</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429805</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6862,7 +6862,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797739</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,7 +6874,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1581.823518162841</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1133.041388121293</v>
+        <v>695.5020655703103</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,58 +6929,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>139.2347658407936</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565524</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683104</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297709</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297709</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797742</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949675</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="38">
@@ -7163,25 +7163,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7190,7 +7190,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7199,7 +7199,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1654.485273605118</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>555.8158034133954</v>
+        <v>695.5020655703112</v>
       </c>
       <c r="C40" t="n">
-        <v>555.8158034133954</v>
+        <v>526.5658826424043</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>376.4492432300686</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1475.663568322143</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1186.246398285183</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>958.2568473871653</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y40" t="n">
-        <v>737.4642682436352</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7388,10 +7388,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
         <v>1204.759558406469</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,31 +7427,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.3929232910544</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>782.4567403631476</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>632.3401009508118</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>484.4270073684186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>337.5370598705082</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7582,7 +7582,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.240688199802</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.823518162842</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.833967264824</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.041388121294</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273906</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239597</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>429.5088224239597</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1026.887310050512</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1654.485273605118</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2206.395003844405</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1056.376371837086</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C46" t="n">
-        <v>887.4401889091794</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D46" t="n">
-        <v>737.3235494968436</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E46" t="n">
-        <v>589.4104559144505</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5205084165402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>275.3244091314201</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y46" t="n">
-        <v>1238.024836667326</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.18793141915882</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26.13373767211337</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636988</v>
+        <v>34.43939438637057</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>187.2277845514378</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>105.5468419254487</v>
+        <v>44.41009271441614</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>30.36925650589448</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515143</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>91.47621148018544</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>49.8730575094833</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>43.10654495411985</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927373</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>60.3140752928299</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844822744</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>191.2691783702301</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>190.1580536648061</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393055</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.052274046183083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864943</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4.845153664064117</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>127.7255247667968</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.131767663158485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823122</v>
       </c>
       <c r="E31" t="n">
-        <v>101.1181252153546</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>145.8014946027482</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.35543909865027</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>127.9379057921826</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>144.634190040852</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>12.04875628922466</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>41.54258064659041</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>145.8014946027472</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>41.86788054217563</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1101236.844916743</v>
+        <v>1101236.844916742</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1101236.844916743</v>
+        <v>1101236.844916742</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1101236.844916743</v>
+        <v>1101236.844916742</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1101236.844916743</v>
+        <v>1101236.844916742</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1101236.844916743</v>
+        <v>1101236.844916742</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1101236.844916743</v>
+        <v>1101236.844916742</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1101236.844916743</v>
+        <v>1101236.844916742</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1101236.844916743</v>
+        <v>1101236.844916742</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="C2" t="n">
+        <v>328416.7079457133</v>
+      </c>
+      <c r="D2" t="n">
         <v>328416.7079457135</v>
       </c>
-      <c r="D2" t="n">
-        <v>328416.7079457137</v>
-      </c>
       <c r="E2" t="n">
-        <v>293035.6977097584</v>
+        <v>293035.6977097585</v>
       </c>
       <c r="F2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="G2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="H2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="I2" t="n">
         <v>322858.6398760023</v>
-      </c>
-      <c r="H2" t="n">
-        <v>322858.6398760023</v>
-      </c>
-      <c r="I2" t="n">
-        <v>322858.6398760025</v>
       </c>
       <c r="J2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="K2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="L2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="M2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="M2" t="n">
-        <v>322858.6398760025</v>
       </c>
       <c r="N2" t="n">
         <v>322858.6398760023</v>
       </c>
       <c r="O2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657079</v>
+        <v>132804.2190657045</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929369</v>
+        <v>265413.0723929401</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545775</v>
+        <v>313577.1573545772</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704286</v>
+        <v>189308.2687704289</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417446</v>
+        <v>30877.42926417359</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.3450204954</v>
+        <v>65018.34502049629</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273094</v>
+        <v>81897.4037127308</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202347</v>
+        <v>49839.57413202355</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>253016.7649073352</v>
       </c>
       <c r="C4" t="n">
-        <v>217460.7998099261</v>
+        <v>217460.7998099271</v>
       </c>
       <c r="D4" t="n">
         <v>142746.9572676994</v>
@@ -26427,13 +26427,13 @@
         <v>12281.50162217159</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.9201818181</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
@@ -26442,22 +26442,22 @@
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181814</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="N4" t="n">
+        <v>12386.92018181816</v>
+      </c>
+      <c r="O4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="O4" t="n">
-        <v>12386.92018181809</v>
-      </c>
       <c r="P4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181815</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.650386675</v>
+        <v>72593.65038667477</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.4850673857</v>
+        <v>85137.48506738567</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-667735.8407570812</v>
+        <v>-667735.8407570813</v>
       </c>
       <c r="C6" t="n">
-        <v>-94441.96131659552</v>
+        <v>-94441.96131659299</v>
       </c>
       <c r="D6" t="n">
-        <v>-172681.0941547674</v>
+        <v>-172681.0941547708</v>
       </c>
       <c r="E6" t="n">
-        <v>-117960.4463343764</v>
+        <v>-118181.5776483507</v>
       </c>
       <c r="F6" t="n">
-        <v>20040.92109984859</v>
+        <v>20006.18317441261</v>
       </c>
       <c r="G6" t="n">
-        <v>209349.1898702771</v>
+        <v>209314.4519448415</v>
       </c>
       <c r="H6" t="n">
-        <v>209349.1898702771</v>
+        <v>209314.4519448414</v>
       </c>
       <c r="I6" t="n">
-        <v>209349.1898702771</v>
+        <v>209314.4519448414</v>
       </c>
       <c r="J6" t="n">
-        <v>140350.0354511631</v>
+        <v>140315.2975257274</v>
       </c>
       <c r="K6" t="n">
-        <v>178471.7606061028</v>
+        <v>178437.0226806677</v>
       </c>
       <c r="L6" t="n">
-        <v>144330.8448497817</v>
+        <v>144296.1069243451</v>
       </c>
       <c r="M6" t="n">
-        <v>127451.7861575463</v>
+        <v>127417.0482321107</v>
       </c>
       <c r="N6" t="n">
-        <v>159509.6157382536</v>
+        <v>159474.8778128178</v>
       </c>
       <c r="O6" t="n">
-        <v>209349.1898702774</v>
+        <v>209314.4519448414</v>
       </c>
       <c r="P6" t="n">
-        <v>209349.1898702772</v>
+        <v>209314.4519448414</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.251747037271466e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695755</v>
+        <v>717.3319511695729</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.687727815432</v>
+        <v>383.6877278154288</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490095</v>
+        <v>969.2208239490092</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,25 +26811,25 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26960,16 +26960,16 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000972</v>
+        <v>103.2769374000945</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479638</v>
+        <v>216.7329409479664</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974113</v>
+        <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,43 +27009,43 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>263.7138800015062</v>
+      </c>
+      <c r="C4" t="n">
+        <v>119.9738478139227</v>
+      </c>
+      <c r="D4" t="n">
+        <v>256.89710428461</v>
+      </c>
+      <c r="E4" t="n">
+        <v>328.6359918489703</v>
+      </c>
+      <c r="F4" t="n">
+        <v>203.4874641506392</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C4" t="n">
-        <v>119.9738478139258</v>
-      </c>
-      <c r="D4" t="n">
-        <v>256.8971042846069</v>
-      </c>
-      <c r="E4" t="n">
-        <v>328.6359918489707</v>
-      </c>
-      <c r="F4" t="n">
-        <v>203.4874641506389</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>263.7138800015064</v>
-      </c>
       <c r="K4" t="n">
-        <v>119.9738478139258</v>
+        <v>119.9738478139224</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846067</v>
+        <v>256.8971042846102</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489709</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506386</v>
+        <v>203.487464150639</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139258</v>
+        <v>119.9738478139227</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846069</v>
+        <v>256.89710428461</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489707</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506392</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.1648765455755</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>152.7039266531025</v>
       </c>
       <c r="D2" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776178</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>85.42466677586606</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.046105109109703</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
@@ -27512,16 +27512,16 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>159.5237740281462</v>
+        <v>177.1114073084713</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>271.3262704184443</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863681</v>
+        <v>99.3002511886372</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>339.6441281650327</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>2.550210840624743</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333225</v>
+        <v>97.33388804333231</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951726</v>
+        <v>36.27346476951745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,22 +27743,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698458</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>180.4099388355054</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>62.24367415190932</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>44.358012377904</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083601</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015377</v>
+        <v>116.5499160015378</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643465</v>
+        <v>1.905236112643792</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1307056315186</v>
       </c>
       <c r="S7" t="n">
-        <v>78.57146676298943</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422209</v>
       </c>
       <c r="U7" t="n">
         <v>286.2484721153922</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>378.6773578933514</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>120.8026817060232</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>51.98384452924348</v>
       </c>
       <c r="S10" t="n">
-        <v>69.11742624445009</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>3.629736511356896e-12</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.285372470912988e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-7.965435133550909e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.750640694000166e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-8.139557993131504e-13</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365126</v>
+        <v>2.883746537365115</v>
       </c>
       <c r="H5" t="n">
-        <v>29.5331692257906</v>
+        <v>29.53316922579049</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817691</v>
+        <v>111.1756383817687</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756935</v>
+        <v>244.7543826756927</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023594</v>
+        <v>366.8233736023581</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952474</v>
+        <v>455.0768316952458</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791145</v>
+        <v>506.3606591791126</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284032</v>
+        <v>514.5541040284013</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974787</v>
+        <v>485.8788493974769</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562771</v>
+        <v>414.6863567562756</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868884</v>
+        <v>311.4121838868873</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277622</v>
+        <v>181.1461434277616</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020787</v>
+        <v>65.71337422020763</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731584</v>
+        <v>12.6236004673158</v>
       </c>
       <c r="U5" t="n">
-        <v>0.23069972298921</v>
+        <v>0.2306997229892092</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270408</v>
+        <v>1.542940423270402</v>
       </c>
       <c r="H6" t="n">
-        <v>14.9015561931642</v>
+        <v>14.90155619316415</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189782</v>
+        <v>53.12316808189762</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862625</v>
+        <v>145.774033586262</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453799</v>
+        <v>249.1510419453789</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438664</v>
+        <v>335.0143230438652</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874186</v>
+        <v>390.9459133874172</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189119</v>
+        <v>401.2930884189104</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348676</v>
+        <v>367.1047769348662</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190659</v>
+        <v>294.6339480190648</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9549915739559</v>
+        <v>196.9549915739552</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392938</v>
+        <v>95.79765189392904</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399199</v>
+        <v>28.65944163399188</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989054</v>
+        <v>6.219132670989031</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730532</v>
+        <v>0.1015092383730528</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141857</v>
+        <v>1.293549420141853</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907943</v>
+        <v>11.50083029907939</v>
       </c>
       <c r="I7" t="n">
-        <v>38.9005589257206</v>
+        <v>38.90055892572045</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402931</v>
+        <v>91.45394400402898</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401176</v>
+        <v>150.286923540117</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545449</v>
+        <v>192.3155201545442</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773277</v>
+        <v>202.7697513773269</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022536</v>
+        <v>197.9483399022529</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669601</v>
+        <v>182.8373307669594</v>
       </c>
       <c r="P7" t="n">
-        <v>156.448922596066</v>
+        <v>156.4489225960655</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266059</v>
+        <v>108.3171246266055</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565113</v>
+        <v>58.16268574565093</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101763</v>
+        <v>22.54303853101755</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060662</v>
+        <v>5.526983886060641</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864685</v>
+        <v>0.07055724109864658</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31753,34 +31753,34 @@
         <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.49729877639238</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203916</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975126</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544655</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954559</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.3875761180167</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956803</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.0102219620358</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
         <v>303.5991401696629</v>
@@ -31792,7 +31792,7 @@
         <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>561.4806834747748</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821481</v>
+        <v>655.2214742821478</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>672.5632370340504</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>489.9737736272083</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383446</v>
+        <v>493.8035753383445</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.094612904754</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>152.743930447925</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
         <v>48.03293999627653</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.19695102798454</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770063</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.7594548531028</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493064</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811709</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493539</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377483</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>484.1423712692491</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32318,7 +32318,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,16 +32561,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>270.97169333569</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>458.6770173132157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>705.9257335045844</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>610.0546826043645</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>181.9330708814848</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>349.7190218511037</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>681.5735157229393</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>211.5147800288493</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34784,10 +34784,10 @@
         <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>263.7138800015061</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>238.3094620181791</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900725</v>
+        <v>63.70847814900637</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573788</v>
+        <v>146.7335225573775</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252602</v>
+        <v>219.3104167252586</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518418</v>
+        <v>276.0144259518399</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318123</v>
+        <v>285.1410404318104</v>
       </c>
       <c r="O5" t="n">
-        <v>255.780637975792</v>
+        <v>255.7806379757902</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010075</v>
+        <v>183.453361001006</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243896</v>
+        <v>89.10649401243782</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>145.0274422600047</v>
+        <v>18.9364069195953</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710209</v>
+        <v>111.30960297102</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639922</v>
+        <v>383.6877278154288</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654003</v>
+        <v>248.8118794653989</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355786</v>
+        <v>269.9513763355772</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904231</v>
+        <v>224.5085324904218</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047356</v>
+        <v>160.6595406047346</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.5200594133831</v>
+        <v>101.3833102023498</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142347</v>
+        <v>128.0174317142342</v>
       </c>
       <c r="L7" t="n">
-        <v>219.905545414861</v>
+        <v>219.9055454148603</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391683</v>
+        <v>242.3536283391675</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814822</v>
+        <v>242.0805122814815</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809997</v>
+        <v>207.4224586809991</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609595</v>
+        <v>153.727481860959</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491152</v>
+        <v>22.15508137491112</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>93.34947739681193</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
@@ -35267,13 +35267,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750467</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937053</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.702485752532</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844783</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681832</v>
       </c>
       <c r="N11" t="n">
         <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739936</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067662</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.478208152647</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>422.9263036949006</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601297</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>541.2215249507171</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>347.3775291827639</v>
       </c>
       <c r="P12" t="n">
         <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187325</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>7.064426483960996</v>
+        <v>14.87641069655345</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186276</v>
       </c>
       <c r="K13" t="n">
         <v>229.6099018070198</v>
@@ -35574,19 +35574,19 @@
         <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388469</v>
       </c>
       <c r="N13" t="n">
         <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022141999</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.37638356776311</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>350.1679638549188</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,16 +36209,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899071</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>132.4173135558158</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295343</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>320.8355783388567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>44.0916319071262</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>574.5840214212511</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>471.5003028244903</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295337</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>44.09163190712581</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,19 +37631,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>207.1227774066593</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>550.231803639606</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>77.5403726145191</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
